--- a/违法路段编号.xlsx
+++ b/违法路段编号.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="927" uniqueCount="890">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="928" uniqueCount="891">
   <si>
     <t>云阳西路云阳大桥西侧路段</t>
   </si>
@@ -2689,6 +2689,10 @@
   </si>
   <si>
     <t>分段编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sdfsfsdf</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3053,10 +3057,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D924"/>
+  <dimension ref="A1:E924"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3068,7 +3072,7 @@
     <col min="5" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>888</v>
       </c>
@@ -3082,7 +3086,7 @@
         <v>889</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1">
         <v>841</v>
       </c>
@@ -3095,8 +3099,11 @@
       <c r="D2" s="2">
         <v>1001</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E2" s="2" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1">
         <v>4875</v>
       </c>
@@ -3110,7 +3117,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
         <v>904</v>
       </c>
@@ -3124,7 +3131,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
         <v>905</v>
       </c>
@@ -3138,7 +3145,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
         <v>906</v>
       </c>
@@ -3152,7 +3159,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1">
         <v>907</v>
       </c>
@@ -3166,7 +3173,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1">
         <v>909</v>
       </c>
@@ -3180,7 +3187,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="1">
         <v>916</v>
       </c>
@@ -3194,7 +3201,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="1">
         <v>918</v>
       </c>
@@ -3208,7 +3215,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="1">
         <v>924</v>
       </c>
@@ -3222,7 +3229,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="1">
         <v>925</v>
       </c>
@@ -3236,7 +3243,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="1">
         <v>926</v>
       </c>
@@ -3250,7 +3257,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="1">
         <v>927</v>
       </c>
@@ -3264,7 +3271,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="1">
         <v>929</v>
       </c>
@@ -3278,7 +3285,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="1">
         <v>930</v>
       </c>
